--- a/biology/Zoologie/Duttaphrynus_melanostictus/Duttaphrynus_melanostictus.xlsx
+++ b/biology/Zoologie/Duttaphrynus_melanostictus/Duttaphrynus_melanostictus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Duttaphrynus melanostictus, le Crapaud masqué, est une espèce d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Duttaphrynus melanostictus, le Crapaud masqué, est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sommet de la tête a plusieurs crêtes osseuses, le long du bord du museau (crête rostrale), en face de l'œil (pré-orbitales), au-dessus de l'œil (supra-orbitaire), derrière l'œil (post-orbitaire), et une courte entre l'œil et l'oreille (orbito-tympanique); Le museau est court et émoussé et l'espace entre les yeux est plus large que la largeur de la paupière supérieure. Le tambour de l'oreille ou tympan est très distinct et est au moins aussi large que le diamètre des deux tiers de l'œil. Le premier doigt est souvent plus long que le second et les orteils au moins à moitié palmés. Un tubercule verruqueux se trouve juste avant la jonction de la cuisse et le métatarse. Il n'y a pas pli de la peau le long du tarse. Le "genou" (articulation tibio-métatarsienne) atteint le tympan ou l'œil lorsque la patte arrière est maintenu parallèle le long du côté du corps. La face dorsale est recouverte de verrues épineuses. La glande parotoïde est au premier plan, en forme de rein ou elliptique et allongée. La face dorsale est jaunâtre ou brunâtre et les épines et les crêtes sont noires. Le ventre est de couleur unie. Les mâles ont un sac vocal et des plaquettes noires sur la face interne des doigts qui aident à maintenir la femelle pendant l'accouplement.
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre jusqu'à 2 000 m d'altitude[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre jusqu'à 2 000 m d'altitude :
 au Pakistan ;
 en Inde, y compris dans les îles Andaman-et-Nicobar ;
 au Sri Lanka ;
@@ -563,7 +579,7 @@
 en Indonésie à Jawa, au Kalimantan et à Sumatra ;
 à Madagascar.
 Sa présence est incertaine au Bhoutan.
-Elle a été introduite en Papouasie-Nouvelle-Guinée, au Timor oriental et en Indonésie à Bali, à Sulawesi, aux Moluques, en Nouvelle-Guinée occidentale, ainsi qu’en Australie où un risque d’infestation est envisagé en mars 2015[2].
+Elle a été introduite en Papouasie-Nouvelle-Guinée, au Timor oriental et en Indonésie à Bali, à Sulawesi, aux Moluques, en Nouvelle-Guinée occidentale, ainsi qu’en Australie où un risque d’infestation est envisagé en mars 2015.
 </t>
         </is>
       </c>
@@ -592,7 +608,9 @@
           <t>Liste des synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cette espèce connait de nombreux synonymes :
 Bufo melanostictus Schneider, 1799 (protonyme)
@@ -637,7 +655,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce dérive du grec ancien μέλας, mélas, « noir », et στικτός, stiktos, « couvert de petites creux ».
 </t>
@@ -668,7 +688,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Schneider, 1799 : Historiae amphibiorum naturalis et literariae fasciculus primus, vol. 1 (texte intégral).</t>
         </is>
